--- a/data/amazon/instructions.xlsx
+++ b/data/amazon/instructions.xlsx
@@ -46,9 +46,6 @@
     <t>Add to Cart Button</t>
   </si>
   <si>
-    <t>#nav-search &gt; form &gt; div.nav-fill &gt; div.nav-search-field</t>
-  </si>
-  <si>
     <t>Search Button</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>echo dot</t>
   </si>
   <si>
-    <t>Introducing Echo Show 8 - HD 8" smart display with Alexa - Sandstone</t>
-  </si>
-  <si>
     <t>LinkClick</t>
   </si>
   <si>
@@ -70,10 +64,16 @@
     <t>#twotabsearchtextbox</t>
   </si>
   <si>
-    <t>#addToCart_feature_div</t>
-  </si>
-  <si>
     <t>#search &gt; div.s-desktop-width-max.s-desktop-content.sg-row &gt; div.sg-col-20-of-24.sg-col-28-of-32.sg-col-16-of-20.sg-col.s-right-column.sg-col-32-of-36.sg-col-8-of-12.sg-col-12-of-16.sg-col-24-of-28 &gt; div &gt; span:nth-child(5) &gt; div.s-result-list.s-search-results.sg-row &gt; div:nth-child(3) &gt; div &gt; span &gt; div &gt; div &gt; div:nth-child(2) &gt; div.sg-col-4-of-12.sg-col-8-of-16.sg-col-16-of-24.sg-col-12-of-20.sg-col-24-of-32.sg-col.sg-col-28-of-36.sg-col-20-of-28 &gt; div &gt; div:nth-child(1) &gt; div &gt; div &gt; div:nth-child(1) &gt; h2 &gt; a</t>
+  </si>
+  <si>
+    <t>idClick</t>
+  </si>
+  <si>
+    <t>add-to-cart-button</t>
+  </si>
+  <si>
+    <t>Echo Show 5 (White) bundle with Thrumm Smart plug</t>
   </si>
 </sst>
 </file>
@@ -421,18 +421,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -446,12 +446,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -460,84 +460,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
